--- a/data/pca/factorExposure/factorExposure_2016-07-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01097808650028614</v>
+        <v>0.013159976261585</v>
       </c>
       <c r="C2">
-        <v>0.04860831290900427</v>
+        <v>0.04097982305308305</v>
       </c>
       <c r="D2">
-        <v>-0.03393911562229242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06307203109768164</v>
+      </c>
+      <c r="E2">
+        <v>0.07216835945262752</v>
+      </c>
+      <c r="F2">
+        <v>-0.05852444202998444</v>
+      </c>
+      <c r="G2">
+        <v>-0.04020734446512126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04254431054635965</v>
+        <v>0.02889759474682105</v>
       </c>
       <c r="C3">
-        <v>0.1191193941222262</v>
+        <v>0.07929243464492999</v>
       </c>
       <c r="D3">
-        <v>-0.1008928037225172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08982066633339025</v>
+      </c>
+      <c r="E3">
+        <v>0.06658387906915698</v>
+      </c>
+      <c r="F3">
+        <v>0.02163492150648536</v>
+      </c>
+      <c r="G3">
+        <v>0.03370138764914751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06075864657619064</v>
+        <v>0.05820325773988583</v>
       </c>
       <c r="C4">
-        <v>0.05849167370266087</v>
+        <v>0.0643609549998712</v>
       </c>
       <c r="D4">
-        <v>-0.03404708417404465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.061421991319379</v>
+      </c>
+      <c r="E4">
+        <v>0.07430034285958687</v>
+      </c>
+      <c r="F4">
+        <v>-0.07296290059120182</v>
+      </c>
+      <c r="G4">
+        <v>0.03803139014434191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.039296832004949</v>
+        <v>0.03566642479163457</v>
       </c>
       <c r="C6">
-        <v>0.04042643637335213</v>
+        <v>0.03178082121559999</v>
       </c>
       <c r="D6">
-        <v>-0.02970095986112595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0643909601948983</v>
+      </c>
+      <c r="E6">
+        <v>0.07652127791652077</v>
+      </c>
+      <c r="F6">
+        <v>-0.04968481720866835</v>
+      </c>
+      <c r="G6">
+        <v>0.02276600904313818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02101204192156932</v>
+        <v>0.01845208158927487</v>
       </c>
       <c r="C7">
-        <v>0.04359950332888437</v>
+        <v>0.03832780398446732</v>
       </c>
       <c r="D7">
-        <v>0.004195719395092916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03933883766488094</v>
+      </c>
+      <c r="E7">
+        <v>0.05346502896829352</v>
+      </c>
+      <c r="F7">
+        <v>-0.09385487858861574</v>
+      </c>
+      <c r="G7">
+        <v>0.01061537749593218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004060767846087563</v>
+        <v>0.003576310395502497</v>
       </c>
       <c r="C8">
-        <v>0.03078297280942833</v>
+        <v>0.03006094656780074</v>
       </c>
       <c r="D8">
-        <v>-0.02367786805161975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03271547917591372</v>
+      </c>
+      <c r="E8">
+        <v>0.05101872985547429</v>
+      </c>
+      <c r="F8">
+        <v>-0.03062929370125159</v>
+      </c>
+      <c r="G8">
+        <v>0.008452880166195069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03346697502520248</v>
+        <v>0.03716119767812047</v>
       </c>
       <c r="C9">
-        <v>0.04534897154153349</v>
+        <v>0.05153708548656936</v>
       </c>
       <c r="D9">
-        <v>-0.01671091457663866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04401401974822498</v>
+      </c>
+      <c r="E9">
+        <v>0.06257271172556818</v>
+      </c>
+      <c r="F9">
+        <v>-0.07815780470122467</v>
+      </c>
+      <c r="G9">
+        <v>0.024181142198816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07892082446424742</v>
+        <v>0.09929192140794843</v>
       </c>
       <c r="C10">
-        <v>-0.1920254230745048</v>
+        <v>-0.1959790222339655</v>
       </c>
       <c r="D10">
-        <v>0.00591111389830256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004537650536194309</v>
+      </c>
+      <c r="E10">
+        <v>0.04644560598917531</v>
+      </c>
+      <c r="F10">
+        <v>-0.03552918488107399</v>
+      </c>
+      <c r="G10">
+        <v>0.009813746085144714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04059312420847741</v>
+        <v>0.03660879645090016</v>
       </c>
       <c r="C11">
-        <v>0.05475095706940431</v>
+        <v>0.05065021222898423</v>
       </c>
       <c r="D11">
-        <v>-0.01606559405159019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0350915090829083</v>
+      </c>
+      <c r="E11">
+        <v>0.02001674657458017</v>
+      </c>
+      <c r="F11">
+        <v>-0.06304750929632677</v>
+      </c>
+      <c r="G11">
+        <v>0.01669627368976221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04008506709604195</v>
+        <v>0.03754647702599541</v>
       </c>
       <c r="C12">
-        <v>0.04881939346823806</v>
+        <v>0.04730200473879544</v>
       </c>
       <c r="D12">
-        <v>-0.004047488171924754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02720791389731626</v>
+      </c>
+      <c r="E12">
+        <v>0.02729694644625223</v>
+      </c>
+      <c r="F12">
+        <v>-0.06215661242992147</v>
+      </c>
+      <c r="G12">
+        <v>0.01376913643300929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01373875170463379</v>
+        <v>0.01220528303059148</v>
       </c>
       <c r="C13">
-        <v>0.05462362575734667</v>
+        <v>0.04605018447131993</v>
       </c>
       <c r="D13">
-        <v>-0.01777141381564391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05827068125009485</v>
+      </c>
+      <c r="E13">
+        <v>0.08870909947665057</v>
+      </c>
+      <c r="F13">
+        <v>-0.08623643398902268</v>
+      </c>
+      <c r="G13">
+        <v>0.02020503293264805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006308603694293527</v>
+        <v>0.004544656947566078</v>
       </c>
       <c r="C14">
-        <v>0.03789560621285177</v>
+        <v>0.03348226358373141</v>
       </c>
       <c r="D14">
-        <v>0.01221983704485624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02570640022574551</v>
+      </c>
+      <c r="E14">
+        <v>0.04165720152474565</v>
+      </c>
+      <c r="F14">
+        <v>-0.08796537303235896</v>
+      </c>
+      <c r="G14">
+        <v>-0.00383568662073894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0003581090202014</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005243554801857564</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006975343042099368</v>
+      </c>
+      <c r="E15">
+        <v>0.00279147460770794</v>
+      </c>
+      <c r="F15">
+        <v>-0.00559050608773316</v>
+      </c>
+      <c r="G15">
+        <v>-0.0001088882449162575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03666041395854472</v>
+        <v>0.03423925153046535</v>
       </c>
       <c r="C16">
-        <v>0.04798076819703965</v>
+        <v>0.04564509400506852</v>
       </c>
       <c r="D16">
-        <v>-0.009798691509401434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0281454645599824</v>
+      </c>
+      <c r="E16">
+        <v>0.03376445587594994</v>
+      </c>
+      <c r="F16">
+        <v>-0.06335544316633447</v>
+      </c>
+      <c r="G16">
+        <v>0.002238422462669183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02084406670076288</v>
+        <v>0.01663027741349905</v>
       </c>
       <c r="C19">
-        <v>0.06487629031285944</v>
+        <v>0.05061191194315894</v>
       </c>
       <c r="D19">
-        <v>-0.08240980070739759</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09224659573041585</v>
+      </c>
+      <c r="E19">
+        <v>0.09932141843582715</v>
+      </c>
+      <c r="F19">
+        <v>-0.0630076457554772</v>
+      </c>
+      <c r="G19">
+        <v>-0.02580572873413403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01609312410345021</v>
+        <v>0.01353622571275356</v>
       </c>
       <c r="C20">
-        <v>0.04830493322281505</v>
+        <v>0.04147588387389778</v>
       </c>
       <c r="D20">
-        <v>-0.01399185289966353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0401514228227398</v>
+      </c>
+      <c r="E20">
+        <v>0.07211373223468916</v>
+      </c>
+      <c r="F20">
+        <v>-0.07043072166028261</v>
+      </c>
+      <c r="G20">
+        <v>0.006990821583478769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.009349766053607843</v>
+        <v>0.009099672815712247</v>
       </c>
       <c r="C21">
-        <v>0.05045475865351109</v>
+        <v>0.04509378104419547</v>
       </c>
       <c r="D21">
-        <v>-0.03765343487209413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06747449805591248</v>
+      </c>
+      <c r="E21">
+        <v>0.1079722686735318</v>
+      </c>
+      <c r="F21">
+        <v>-0.1069987145904786</v>
+      </c>
+      <c r="G21">
+        <v>0.007463190008428138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0005888785900452897</v>
+        <v>0.002450081678128487</v>
       </c>
       <c r="C22">
-        <v>0.0006315280189288433</v>
+        <v>0.02495598467060724</v>
       </c>
       <c r="D22">
-        <v>-0.001773752598746378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03964776318355946</v>
+      </c>
+      <c r="E22">
+        <v>0.03096236119660108</v>
+      </c>
+      <c r="F22">
+        <v>-0.008999605620809739</v>
+      </c>
+      <c r="G22">
+        <v>0.03924798133068738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0005920482944365952</v>
+        <v>0.002521111344699845</v>
       </c>
       <c r="C23">
-        <v>0.0006235517170947529</v>
+        <v>0.02510255202003974</v>
       </c>
       <c r="D23">
-        <v>-0.001761418366293476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03931587627927852</v>
+      </c>
+      <c r="E23">
+        <v>0.03124002322306452</v>
+      </c>
+      <c r="F23">
+        <v>-0.008776222750442453</v>
+      </c>
+      <c r="G23">
+        <v>0.03945063168495336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03309820336579634</v>
+        <v>0.03409967537848196</v>
       </c>
       <c r="C24">
-        <v>0.05033768346671399</v>
+        <v>0.0531340460378058</v>
       </c>
       <c r="D24">
-        <v>-0.01011262219611348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02826052039391438</v>
+      </c>
+      <c r="E24">
+        <v>0.03425036155370753</v>
+      </c>
+      <c r="F24">
+        <v>-0.069789717038283</v>
+      </c>
+      <c r="G24">
+        <v>0.01032982853897149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04683442498491566</v>
+        <v>0.04403550389207846</v>
       </c>
       <c r="C25">
-        <v>0.06173225185824094</v>
+        <v>0.05735743782734793</v>
       </c>
       <c r="D25">
-        <v>-0.001367006328815128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02649273575795551</v>
+      </c>
+      <c r="E25">
+        <v>0.02673546580703807</v>
+      </c>
+      <c r="F25">
+        <v>-0.07330235276281211</v>
+      </c>
+      <c r="G25">
+        <v>0.02749149892012335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01455666801212449</v>
+        <v>0.01414268664132948</v>
       </c>
       <c r="C26">
-        <v>0.01772761388820841</v>
+        <v>0.01843131886964653</v>
       </c>
       <c r="D26">
-        <v>0.0007907125118384825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02482243780230597</v>
+      </c>
+      <c r="E26">
+        <v>0.04229810142696575</v>
+      </c>
+      <c r="F26">
+        <v>-0.06402535523129209</v>
+      </c>
+      <c r="G26">
+        <v>-0.01199693117076032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09602098176347855</v>
+        <v>0.1346508769322177</v>
       </c>
       <c r="C28">
-        <v>-0.2369915099576405</v>
+        <v>-0.2474235777239803</v>
       </c>
       <c r="D28">
-        <v>0.0064697271802631</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01882247177521503</v>
+      </c>
+      <c r="E28">
+        <v>0.06186047936786049</v>
+      </c>
+      <c r="F28">
+        <v>-0.05234528524613684</v>
+      </c>
+      <c r="G28">
+        <v>0.02131874030200836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006606790821191193</v>
+        <v>0.005874234455528963</v>
       </c>
       <c r="C29">
-        <v>0.03104997798595319</v>
+        <v>0.02948448599822439</v>
       </c>
       <c r="D29">
-        <v>0.01651337509308877</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01952184657539001</v>
+      </c>
+      <c r="E29">
+        <v>0.04216783282230014</v>
+      </c>
+      <c r="F29">
+        <v>-0.08225061704788358</v>
+      </c>
+      <c r="G29">
+        <v>0.009624909558656899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04652158410716388</v>
+        <v>0.04229014333795635</v>
       </c>
       <c r="C30">
-        <v>0.06485076228431888</v>
+        <v>0.06503909680773914</v>
       </c>
       <c r="D30">
-        <v>-0.07911731396982462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1094692295117671</v>
+      </c>
+      <c r="E30">
+        <v>0.06597730940187795</v>
+      </c>
+      <c r="F30">
+        <v>-0.07860850041620462</v>
+      </c>
+      <c r="G30">
+        <v>-0.01240440061626751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0533029129408586</v>
+        <v>0.05553840512062802</v>
       </c>
       <c r="C31">
-        <v>0.03898779761493878</v>
+        <v>0.05738605631276072</v>
       </c>
       <c r="D31">
-        <v>0.02982020215276601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01104624290325137</v>
+      </c>
+      <c r="E31">
+        <v>0.06510687538942905</v>
+      </c>
+      <c r="F31">
+        <v>-0.06456087816815469</v>
+      </c>
+      <c r="G31">
+        <v>0.04841802935874893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.00227371310570566</v>
+        <v>0.004279795954648703</v>
       </c>
       <c r="C32">
-        <v>0.03722591462138102</v>
+        <v>0.03463413069210436</v>
       </c>
       <c r="D32">
-        <v>-0.04139156085235596</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05371688274712264</v>
+      </c>
+      <c r="E32">
+        <v>0.04497171350825759</v>
+      </c>
+      <c r="F32">
+        <v>-0.0618810007267581</v>
+      </c>
+      <c r="G32">
+        <v>-0.009414732673894097</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02654993957674745</v>
+        <v>0.02447040399679055</v>
       </c>
       <c r="C33">
-        <v>0.06031163717307709</v>
+        <v>0.05519976912947629</v>
       </c>
       <c r="D33">
-        <v>-0.04810358599890102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08130911893937189</v>
+      </c>
+      <c r="E33">
+        <v>0.07720636888876679</v>
+      </c>
+      <c r="F33">
+        <v>-0.1097764423878193</v>
+      </c>
+      <c r="G33">
+        <v>0.02205591543364891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04513717907331597</v>
+        <v>0.0414714878675638</v>
       </c>
       <c r="C34">
-        <v>0.06508903058014399</v>
+        <v>0.06417995587757419</v>
       </c>
       <c r="D34">
-        <v>-0.01396063222179532</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0354193828342234</v>
+      </c>
+      <c r="E34">
+        <v>0.006947063807405625</v>
+      </c>
+      <c r="F34">
+        <v>-0.07567849328439458</v>
+      </c>
+      <c r="G34">
+        <v>0.01246109887941505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01364534904589808</v>
+        <v>0.01315218750354642</v>
       </c>
       <c r="C36">
-        <v>0.0145738214090335</v>
+        <v>0.01307535411420643</v>
       </c>
       <c r="D36">
-        <v>0.002872956177519465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02677196760078031</v>
+      </c>
+      <c r="E36">
+        <v>0.05133695560491995</v>
+      </c>
+      <c r="F36">
+        <v>-0.06831996968786896</v>
+      </c>
+      <c r="G36">
+        <v>0.01070476469426626</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03044728708864119</v>
+        <v>0.02432594848550377</v>
       </c>
       <c r="C38">
-        <v>0.02960833758917463</v>
+        <v>0.02396560834694663</v>
       </c>
       <c r="D38">
-        <v>0.005885701187018168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02785408194340056</v>
+      </c>
+      <c r="E38">
+        <v>0.04610436827618835</v>
+      </c>
+      <c r="F38">
+        <v>-0.05659562627640689</v>
+      </c>
+      <c r="G38">
+        <v>0.003122040441096791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04466896430102844</v>
+        <v>0.04011704085289258</v>
       </c>
       <c r="C39">
-        <v>0.07062960113376426</v>
+        <v>0.06803232376281498</v>
       </c>
       <c r="D39">
-        <v>-0.02217788688494307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05576666832202649</v>
+      </c>
+      <c r="E39">
+        <v>0.03877217518763883</v>
+      </c>
+      <c r="F39">
+        <v>-0.08127973886207945</v>
+      </c>
+      <c r="G39">
+        <v>-0.01243031741481636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01304602169206556</v>
+        <v>0.01390105213816427</v>
       </c>
       <c r="C40">
-        <v>0.05301441810089642</v>
+        <v>0.03993162388844458</v>
       </c>
       <c r="D40">
-        <v>-0.02001468655230622</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03825046157929986</v>
+      </c>
+      <c r="E40">
+        <v>0.07749177140780936</v>
+      </c>
+      <c r="F40">
+        <v>-0.06280752597665404</v>
+      </c>
+      <c r="G40">
+        <v>0.0397529662034771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01881188103839477</v>
+        <v>0.01796153316227021</v>
       </c>
       <c r="C41">
-        <v>0.006123333873359737</v>
+        <v>0.008251511987625424</v>
       </c>
       <c r="D41">
-        <v>0.003504829223576857</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01471644377029038</v>
+      </c>
+      <c r="E41">
+        <v>0.05102615863246418</v>
+      </c>
+      <c r="F41">
+        <v>-0.05892554694935356</v>
+      </c>
+      <c r="G41">
+        <v>0.00320982646968658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03539773249478361</v>
+        <v>0.02841370936631089</v>
       </c>
       <c r="C43">
-        <v>0.02392844674905126</v>
+        <v>0.02266151524372798</v>
       </c>
       <c r="D43">
-        <v>-0.02111395443325035</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04124608779352508</v>
+      </c>
+      <c r="E43">
+        <v>0.06300994694175518</v>
+      </c>
+      <c r="F43">
+        <v>-0.0657302215270911</v>
+      </c>
+      <c r="G43">
+        <v>0.02238505399488933</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01323567205891366</v>
+        <v>0.01457853342438425</v>
       </c>
       <c r="C44">
-        <v>0.06615782139022504</v>
+        <v>0.05146390078023137</v>
       </c>
       <c r="D44">
-        <v>-0.01281538370560625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04238439131094826</v>
+      </c>
+      <c r="E44">
+        <v>0.0833332157337586</v>
+      </c>
+      <c r="F44">
+        <v>-0.06760811174249898</v>
+      </c>
+      <c r="G44">
+        <v>-0.006272161092973311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.004856092687708767</v>
+        <v>0.007719346166850168</v>
       </c>
       <c r="C46">
-        <v>0.02353892219196695</v>
+        <v>0.02688169825185665</v>
       </c>
       <c r="D46">
-        <v>0.02010395488314774</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01185941466668606</v>
+      </c>
+      <c r="E46">
+        <v>0.05136210928680782</v>
+      </c>
+      <c r="F46">
+        <v>-0.09535413214876223</v>
+      </c>
+      <c r="G46">
+        <v>0.002598328133317112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08193062684184849</v>
+        <v>0.08784354218131721</v>
       </c>
       <c r="C47">
-        <v>0.06900045051769269</v>
+        <v>0.07978016726196696</v>
       </c>
       <c r="D47">
-        <v>0.02798756492312765</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01570923362623934</v>
+      </c>
+      <c r="E47">
+        <v>0.06964685695412716</v>
+      </c>
+      <c r="F47">
+        <v>-0.06930716057426523</v>
+      </c>
+      <c r="G47">
+        <v>0.05263291550838542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01803144172918919</v>
+        <v>0.01557870537338552</v>
       </c>
       <c r="C48">
-        <v>0.01361844939550351</v>
+        <v>0.01702105823770521</v>
       </c>
       <c r="D48">
-        <v>0.01566139399275514</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01699780266824934</v>
+      </c>
+      <c r="E48">
+        <v>0.06271790483839407</v>
+      </c>
+      <c r="F48">
+        <v>-0.0847900696139489</v>
+      </c>
+      <c r="G48">
+        <v>0.009693322250265335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07899651118998061</v>
+        <v>0.07113038825916423</v>
       </c>
       <c r="C50">
-        <v>0.07489785489490142</v>
+        <v>0.07287158103987218</v>
       </c>
       <c r="D50">
-        <v>0.02998600376038426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002629831084819784</v>
+      </c>
+      <c r="E50">
+        <v>0.07204960793895138</v>
+      </c>
+      <c r="F50">
+        <v>-0.04847243254287048</v>
+      </c>
+      <c r="G50">
+        <v>0.07103893168691079</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01526674902197529</v>
+        <v>0.0111851170043086</v>
       </c>
       <c r="C51">
-        <v>0.05124659577735197</v>
+        <v>0.03403838423631716</v>
       </c>
       <c r="D51">
-        <v>-0.02734440941700362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05034490730845499</v>
+      </c>
+      <c r="E51">
+        <v>0.04158401424971891</v>
+      </c>
+      <c r="F51">
+        <v>-0.07084965291880389</v>
+      </c>
+      <c r="G51">
+        <v>-0.01928972578207802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08013851741087735</v>
+        <v>0.09382545076325105</v>
       </c>
       <c r="C53">
-        <v>0.07713845214848448</v>
+        <v>0.0868450355153664</v>
       </c>
       <c r="D53">
-        <v>0.03914982347621786</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03873142084675919</v>
+      </c>
+      <c r="E53">
+        <v>0.06857504794977838</v>
+      </c>
+      <c r="F53">
+        <v>-0.07927377384267288</v>
+      </c>
+      <c r="G53">
+        <v>0.06572258212279047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0290539980646252</v>
+        <v>0.02759762080831825</v>
       </c>
       <c r="C54">
-        <v>0.02864882939274832</v>
+        <v>0.02798722835817275</v>
       </c>
       <c r="D54">
-        <v>-0.00264814536781177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03036375004687709</v>
+      </c>
+      <c r="E54">
+        <v>0.04996095448255378</v>
+      </c>
+      <c r="F54">
+        <v>-0.09276640805802865</v>
+      </c>
+      <c r="G54">
+        <v>0.01092678081200736</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07402581301084507</v>
+        <v>0.08522800167620202</v>
       </c>
       <c r="C55">
-        <v>0.05889151974737922</v>
+        <v>0.06997337691814159</v>
       </c>
       <c r="D55">
-        <v>0.04864485104077038</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04733167253184223</v>
+      </c>
+      <c r="E55">
+        <v>0.05235306648924284</v>
+      </c>
+      <c r="F55">
+        <v>-0.05578268917867743</v>
+      </c>
+      <c r="G55">
+        <v>0.05358071450113959</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1426133598244957</v>
+        <v>0.1469789711879557</v>
       </c>
       <c r="C56">
-        <v>0.09489026675403753</v>
+        <v>0.1050538181322343</v>
       </c>
       <c r="D56">
-        <v>0.0453727249385926</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04721085345329214</v>
+      </c>
+      <c r="E56">
+        <v>0.0532740303104758</v>
+      </c>
+      <c r="F56">
+        <v>-0.0420762049753676</v>
+      </c>
+      <c r="G56">
+        <v>0.05897018839412935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0009106929475091029</v>
+        <v>0.0003175340007497654</v>
       </c>
       <c r="C57">
-        <v>-0.001675167245373375</v>
+        <v>-0.0008112271904372506</v>
       </c>
       <c r="D57">
-        <v>-0.01325779412761351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01101628488634583</v>
+      </c>
+      <c r="E57">
+        <v>0.00673050693778812</v>
+      </c>
+      <c r="F57">
+        <v>-0.007944239879586177</v>
+      </c>
+      <c r="G57">
+        <v>0.0003204140838986402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0498479637010646</v>
+        <v>0.02958694597597449</v>
       </c>
       <c r="C58">
-        <v>0.03617715342880294</v>
+        <v>0.03310775050538968</v>
       </c>
       <c r="D58">
-        <v>-0.6478162792074462</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4148264637174461</v>
+      </c>
+      <c r="E58">
+        <v>0.6194655807887848</v>
+      </c>
+      <c r="F58">
+        <v>0.5796524705594841</v>
+      </c>
+      <c r="G58">
+        <v>-0.09377949955514393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1349674886380068</v>
+        <v>0.1439187397718798</v>
       </c>
       <c r="C59">
-        <v>-0.1910738261556728</v>
+        <v>-0.1863179194667694</v>
       </c>
       <c r="D59">
-        <v>-0.02062339782788097</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02915392018687814</v>
+      </c>
+      <c r="E59">
+        <v>0.02576495137130637</v>
+      </c>
+      <c r="F59">
+        <v>-0.02020765891767556</v>
+      </c>
+      <c r="G59">
+        <v>-0.02853577114644105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3085156504072361</v>
+        <v>0.2828476168342471</v>
       </c>
       <c r="C60">
-        <v>0.09989849254129578</v>
+        <v>0.09864695901739699</v>
       </c>
       <c r="D60">
-        <v>-0.1519854349810958</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2207121273598877</v>
+      </c>
+      <c r="E60">
+        <v>-0.2786149416635935</v>
+      </c>
+      <c r="F60">
+        <v>0.0789294125423563</v>
+      </c>
+      <c r="G60">
+        <v>0.04933491465877046</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04220226579487079</v>
+        <v>0.04123768892590775</v>
       </c>
       <c r="C61">
-        <v>0.06569621291841581</v>
+        <v>0.06233135297509959</v>
       </c>
       <c r="D61">
-        <v>-0.01731372945912416</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04698891809594192</v>
+      </c>
+      <c r="E61">
+        <v>0.04267094277522854</v>
+      </c>
+      <c r="F61">
+        <v>-0.07075658541183576</v>
+      </c>
+      <c r="G61">
+        <v>0.01308788038374359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01517038774181134</v>
+        <v>0.01509580832566478</v>
       </c>
       <c r="C63">
-        <v>0.03279157706644042</v>
+        <v>0.03160028103120356</v>
       </c>
       <c r="D63">
-        <v>0.01044843086858041</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02154165272058286</v>
+      </c>
+      <c r="E63">
+        <v>0.05488744862967598</v>
+      </c>
+      <c r="F63">
+        <v>-0.06330228457712488</v>
+      </c>
+      <c r="G63">
+        <v>0.02952903429580829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04835262096029833</v>
+        <v>0.05599674344430389</v>
       </c>
       <c r="C64">
-        <v>0.04394284163244894</v>
+        <v>0.05566312817357484</v>
       </c>
       <c r="D64">
-        <v>-0.003176292728997498</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008869663863543239</v>
+      </c>
+      <c r="E64">
+        <v>0.03669752909302106</v>
+      </c>
+      <c r="F64">
+        <v>-0.08315108660029463</v>
+      </c>
+      <c r="G64">
+        <v>0.01295232372121523</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08688126946211892</v>
+        <v>0.07042269860569311</v>
       </c>
       <c r="C65">
-        <v>0.03567816634089799</v>
+        <v>0.0327619979176614</v>
       </c>
       <c r="D65">
-        <v>-0.05382354970096332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08747614863567309</v>
+      </c>
+      <c r="E65">
+        <v>0.04050341866530099</v>
+      </c>
+      <c r="F65">
+        <v>-0.0007896014673261932</v>
+      </c>
+      <c r="G65">
+        <v>0.001308170475456949</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06203592038941837</v>
+        <v>0.05276490279442948</v>
       </c>
       <c r="C66">
-        <v>0.09988905874123337</v>
+        <v>0.08928454462686816</v>
       </c>
       <c r="D66">
-        <v>-0.04549732998360218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08284985058422832</v>
+      </c>
+      <c r="E66">
+        <v>0.0449457834660265</v>
+      </c>
+      <c r="F66">
+        <v>-0.08204784616745478</v>
+      </c>
+      <c r="G66">
+        <v>0.004620814092684599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05259999573091748</v>
+        <v>0.04633790106710935</v>
       </c>
       <c r="C67">
-        <v>0.0342648628006014</v>
+        <v>0.03031388867731617</v>
       </c>
       <c r="D67">
-        <v>0.008137928395185184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01431762715151682</v>
+      </c>
+      <c r="E67">
+        <v>0.02575671677646839</v>
+      </c>
+      <c r="F67">
+        <v>-0.04780883248959186</v>
+      </c>
+      <c r="G67">
+        <v>0.009655048215308475</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1304281083817372</v>
+        <v>0.1498716900427522</v>
       </c>
       <c r="C68">
-        <v>-0.2819276594167043</v>
+        <v>-0.2489520969773243</v>
       </c>
       <c r="D68">
-        <v>0.01405964464367534</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01789921801563008</v>
+      </c>
+      <c r="E68">
+        <v>0.04327855477975649</v>
+      </c>
+      <c r="F68">
+        <v>-0.01347265519772455</v>
+      </c>
+      <c r="G68">
+        <v>0.01043619320345023</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08882778927099697</v>
+        <v>0.08755320063461873</v>
       </c>
       <c r="C69">
-        <v>0.06758730518967798</v>
+        <v>0.08644210797959992</v>
       </c>
       <c r="D69">
-        <v>0.0376977141860562</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00733695400401646</v>
+      </c>
+      <c r="E69">
+        <v>0.05312498933483199</v>
+      </c>
+      <c r="F69">
+        <v>-0.08742361681787353</v>
+      </c>
+      <c r="G69">
+        <v>0.03204272758392045</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1207685041036683</v>
+        <v>0.1422616118228029</v>
       </c>
       <c r="C71">
-        <v>-0.2481416856040357</v>
+        <v>-0.2362177753944037</v>
       </c>
       <c r="D71">
-        <v>-0.02307456793626891</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01256245702080367</v>
+      </c>
+      <c r="E71">
+        <v>0.06794270577926539</v>
+      </c>
+      <c r="F71">
+        <v>-0.04930812823380926</v>
+      </c>
+      <c r="G71">
+        <v>0.03787236578987567</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08815787412395934</v>
+        <v>0.09805443635311326</v>
       </c>
       <c r="C72">
-        <v>0.05357393755840909</v>
+        <v>0.056618364813578</v>
       </c>
       <c r="D72">
-        <v>-0.006673837620636002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02960154439979024</v>
+      </c>
+      <c r="E72">
+        <v>0.01940160430435694</v>
+      </c>
+      <c r="F72">
+        <v>-0.06712593038283406</v>
+      </c>
+      <c r="G72">
+        <v>0.0360908639991188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4098417736318977</v>
+        <v>0.347962008859206</v>
       </c>
       <c r="C73">
-        <v>0.06576517141719544</v>
+        <v>0.07256144260020474</v>
       </c>
       <c r="D73">
-        <v>-0.3763076922544165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4590393124068758</v>
+      </c>
+      <c r="E73">
+        <v>-0.4897020628661268</v>
+      </c>
+      <c r="F73">
+        <v>0.2266052400307682</v>
+      </c>
+      <c r="G73">
+        <v>0.09989114717007545</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1059241302673946</v>
+        <v>0.1107243533437462</v>
       </c>
       <c r="C74">
-        <v>0.09710975576307289</v>
+        <v>0.09633964505661131</v>
       </c>
       <c r="D74">
-        <v>0.02193985325904979</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02935681220529925</v>
+      </c>
+      <c r="E74">
+        <v>0.06940496316995266</v>
+      </c>
+      <c r="F74">
+        <v>-0.04052716130057218</v>
+      </c>
+      <c r="G74">
+        <v>0.07289069659683402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2516947326155913</v>
+        <v>0.2575277926382264</v>
       </c>
       <c r="C75">
-        <v>0.1059375266889476</v>
+        <v>0.1299990157808877</v>
       </c>
       <c r="D75">
-        <v>0.09585300131694408</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1264851294855139</v>
+      </c>
+      <c r="E75">
+        <v>0.06923114553426966</v>
+      </c>
+      <c r="F75">
+        <v>-0.01777534957465462</v>
+      </c>
+      <c r="G75">
+        <v>0.07575778720979202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1112482460517986</v>
+        <v>0.1270823102187752</v>
       </c>
       <c r="C76">
-        <v>0.08997002014168833</v>
+        <v>0.09906414590368916</v>
       </c>
       <c r="D76">
-        <v>0.04774395581560677</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05636671922896189</v>
+      </c>
+      <c r="E76">
+        <v>0.08227126436300303</v>
+      </c>
+      <c r="F76">
+        <v>-0.06200837867375231</v>
+      </c>
+      <c r="G76">
+        <v>0.05790964717377846</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0772282251162064</v>
+        <v>0.06323470503948432</v>
       </c>
       <c r="C77">
-        <v>0.06485286618186373</v>
+        <v>0.07513122778613621</v>
       </c>
       <c r="D77">
-        <v>-0.05539563106333802</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06556906815642864</v>
+      </c>
+      <c r="E77">
+        <v>0.09927659287864592</v>
+      </c>
+      <c r="F77">
+        <v>-0.1068169553504648</v>
+      </c>
+      <c r="G77">
+        <v>-0.1330123174550757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04737310313363123</v>
+        <v>0.04400483232648957</v>
       </c>
       <c r="C78">
-        <v>0.05282270144378708</v>
+        <v>0.06069300695946578</v>
       </c>
       <c r="D78">
-        <v>-0.02824123096878114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06638767663779464</v>
+      </c>
+      <c r="E78">
+        <v>0.0480902056170865</v>
+      </c>
+      <c r="F78">
+        <v>-0.08351049924347742</v>
+      </c>
+      <c r="G78">
+        <v>0.009311240735092348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02745798816777769</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04171428101772661</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06051741122214326</v>
+      </c>
+      <c r="E79">
+        <v>0.06587286087412796</v>
+      </c>
+      <c r="F79">
+        <v>-0.03077615220201843</v>
+      </c>
+      <c r="G79">
+        <v>0.07868104814514564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04474264033412048</v>
+        <v>0.03423468798102985</v>
       </c>
       <c r="C80">
-        <v>0.05669420910881141</v>
+        <v>0.0556152131628321</v>
       </c>
       <c r="D80">
-        <v>-0.03217892632621235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04523862044647688</v>
+      </c>
+      <c r="E80">
+        <v>0.01627510554824712</v>
+      </c>
+      <c r="F80">
+        <v>-0.03096804385440212</v>
+      </c>
+      <c r="G80">
+        <v>-0.04654441393840431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1397198266840566</v>
+        <v>0.140550349060628</v>
       </c>
       <c r="C81">
-        <v>0.08088450421047273</v>
+        <v>0.09540636467112359</v>
       </c>
       <c r="D81">
-        <v>0.07681291893690619</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09995265182911688</v>
+      </c>
+      <c r="E81">
+        <v>0.08622415254908586</v>
+      </c>
+      <c r="F81">
+        <v>-0.005744572576812109</v>
+      </c>
+      <c r="G81">
+        <v>0.05204254591506358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1610191098234071</v>
+        <v>0.2040190938542099</v>
       </c>
       <c r="C82">
-        <v>0.07427572130936182</v>
+        <v>0.1396679616122379</v>
       </c>
       <c r="D82">
-        <v>0.1590733271072954</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2330287862458664</v>
+      </c>
+      <c r="E82">
+        <v>0.01127110676945732</v>
+      </c>
+      <c r="F82">
+        <v>-0.1070513272515718</v>
+      </c>
+      <c r="G82">
+        <v>0.0572437605863663</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04049740024611652</v>
+        <v>0.02854329931477788</v>
       </c>
       <c r="C83">
-        <v>0.02830056219060584</v>
+        <v>0.04263833320220117</v>
       </c>
       <c r="D83">
-        <v>-0.03268522659283968</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03445542088247355</v>
+      </c>
+      <c r="E83">
+        <v>0.0208156863802214</v>
+      </c>
+      <c r="F83">
+        <v>-0.04100572397628241</v>
+      </c>
+      <c r="G83">
+        <v>-0.01963079462779705</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1.887822291941528e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>5.361520608568122e-05</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0002124157887690597</v>
+      </c>
+      <c r="E84">
+        <v>9.040949839389387e-05</v>
+      </c>
+      <c r="F84">
+        <v>-0.0007119627950019755</v>
+      </c>
+      <c r="G84">
+        <v>0.0004531681112675336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2173339206744382</v>
+        <v>0.2031551486368824</v>
       </c>
       <c r="C85">
-        <v>0.1054054615979344</v>
+        <v>0.1165162422142177</v>
       </c>
       <c r="D85">
-        <v>0.1183271729520596</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09662316479664622</v>
+      </c>
+      <c r="E85">
+        <v>0.000236837634491358</v>
+      </c>
+      <c r="F85">
+        <v>0.009040583567497439</v>
+      </c>
+      <c r="G85">
+        <v>0.1272960254486835</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0096293637081166</v>
+        <v>0.0104943473838173</v>
       </c>
       <c r="C86">
-        <v>0.0414156669312318</v>
+        <v>0.0311050747924093</v>
       </c>
       <c r="D86">
-        <v>-0.04132356712077825</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06491994302504143</v>
+      </c>
+      <c r="E86">
+        <v>0.06941811662091098</v>
+      </c>
+      <c r="F86">
+        <v>-0.1218943652871126</v>
+      </c>
+      <c r="G86">
+        <v>-0.0123002214285962</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02384544957642903</v>
+        <v>0.02252403081303479</v>
       </c>
       <c r="C87">
-        <v>0.01338527863866608</v>
+        <v>0.02042212685571932</v>
       </c>
       <c r="D87">
-        <v>-0.09067613791048576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09130298379872902</v>
+      </c>
+      <c r="E87">
+        <v>0.1156344960231165</v>
+      </c>
+      <c r="F87">
+        <v>-0.06011985797890467</v>
+      </c>
+      <c r="G87">
+        <v>-0.04137704305790112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1050444745405403</v>
+        <v>0.09328862502572073</v>
       </c>
       <c r="C88">
-        <v>0.06945491472968403</v>
+        <v>0.06283770254454049</v>
       </c>
       <c r="D88">
-        <v>0.02556706688163996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.007751905100454353</v>
+      </c>
+      <c r="E88">
+        <v>0.04828337017178325</v>
+      </c>
+      <c r="F88">
+        <v>-0.0673611535748003</v>
+      </c>
+      <c r="G88">
+        <v>-0.02655009364243394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1887945090484444</v>
+        <v>0.2185714160435495</v>
       </c>
       <c r="C89">
-        <v>-0.3767543980626986</v>
+        <v>-0.3801790476030931</v>
       </c>
       <c r="D89">
-        <v>0.01831645547839406</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.008635032764110115</v>
+      </c>
+      <c r="E89">
+        <v>0.0677057067487504</v>
+      </c>
+      <c r="F89">
+        <v>-0.07299787384146837</v>
+      </c>
+      <c r="G89">
+        <v>-0.06283241238081382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1805516894025435</v>
+        <v>0.1987391394353057</v>
       </c>
       <c r="C90">
-        <v>-0.3359226035375786</v>
+        <v>-0.3141242291807597</v>
       </c>
       <c r="D90">
-        <v>0.01941885389971048</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0133009978877878</v>
+      </c>
+      <c r="E90">
+        <v>0.07613064812567362</v>
+      </c>
+      <c r="F90">
+        <v>-0.03607879419163039</v>
+      </c>
+      <c r="G90">
+        <v>-0.01376886102606405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1872823198354613</v>
+        <v>0.1861064521525003</v>
       </c>
       <c r="C91">
-        <v>0.1262129031293135</v>
+        <v>0.1399284567993772</v>
       </c>
       <c r="D91">
-        <v>0.0910413681468247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1061564519114255</v>
+      </c>
+      <c r="E91">
+        <v>0.06598881534029</v>
+      </c>
+      <c r="F91">
+        <v>-0.03227226426607065</v>
+      </c>
+      <c r="G91">
+        <v>0.05874586754914713</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1668772353556194</v>
+        <v>0.1800778429329823</v>
       </c>
       <c r="C92">
-        <v>-0.2830395595763673</v>
+        <v>-0.2864139645299413</v>
       </c>
       <c r="D92">
-        <v>0.004757015004800785</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.006556590626711579</v>
+      </c>
+      <c r="E92">
+        <v>0.07561453663427675</v>
+      </c>
+      <c r="F92">
+        <v>-0.08136550779401455</v>
+      </c>
+      <c r="G92">
+        <v>-0.007343309461926836</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2036986480125173</v>
+        <v>0.2222713428070047</v>
       </c>
       <c r="C93">
-        <v>-0.3362960531140871</v>
+        <v>-0.3194545770374682</v>
       </c>
       <c r="D93">
-        <v>0.01762369374993654</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.006589869403634182</v>
+      </c>
+      <c r="E93">
+        <v>0.05075932543825771</v>
+      </c>
+      <c r="F93">
+        <v>-0.03774723703994073</v>
+      </c>
+      <c r="G93">
+        <v>0.02750525368388135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3410242410070738</v>
+        <v>0.3447572820987324</v>
       </c>
       <c r="C94">
-        <v>0.152504490731421</v>
+        <v>0.1816881490778541</v>
       </c>
       <c r="D94">
-        <v>0.4889200883031208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5067062953752206</v>
+      </c>
+      <c r="E94">
+        <v>0.01979495233341207</v>
+      </c>
+      <c r="F94">
+        <v>0.4475037470393872</v>
+      </c>
+      <c r="G94">
+        <v>-0.3425588733864606</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1104954934061964</v>
+        <v>0.08497796533753445</v>
       </c>
       <c r="C95">
-        <v>0.07656067203991214</v>
+        <v>0.06629537828439484</v>
       </c>
       <c r="D95">
-        <v>-0.1354274082188378</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1653692512772477</v>
+      </c>
+      <c r="E95">
+        <v>-0.1051177679992973</v>
+      </c>
+      <c r="F95">
+        <v>-0.2585226237784419</v>
+      </c>
+      <c r="G95">
+        <v>-0.8570348821337065</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1961826379413445</v>
+        <v>0.1881874051771804</v>
       </c>
       <c r="C98">
-        <v>0.01935826256945714</v>
+        <v>0.03849729966434065</v>
       </c>
       <c r="D98">
-        <v>-0.1413216756004289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1837394416291926</v>
+      </c>
+      <c r="E98">
+        <v>-0.155024887049716</v>
+      </c>
+      <c r="F98">
+        <v>0.03074210777515276</v>
+      </c>
+      <c r="G98">
+        <v>0.09871467741171611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006555668809420948</v>
+        <v>0.005926764153960912</v>
       </c>
       <c r="C101">
-        <v>0.03106099924401674</v>
+        <v>0.02922787527761513</v>
       </c>
       <c r="D101">
-        <v>0.01716652180481915</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01899081143281236</v>
+      </c>
+      <c r="E101">
+        <v>0.04282810374439376</v>
+      </c>
+      <c r="F101">
+        <v>-0.08191725375375079</v>
+      </c>
+      <c r="G101">
+        <v>0.00851104114906027</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1213440874205943</v>
+        <v>0.1249910226539421</v>
       </c>
       <c r="C102">
-        <v>0.07345164894753377</v>
+        <v>0.09834640733479517</v>
       </c>
       <c r="D102">
-        <v>0.02795606474227706</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04616605424959063</v>
+      </c>
+      <c r="E102">
+        <v>-0.001008307536519281</v>
+      </c>
+      <c r="F102">
+        <v>-0.04694821380374534</v>
+      </c>
+      <c r="G102">
+        <v>0.02019110565153001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
